--- a/工作目录/index.xlsx
+++ b/工作目录/index.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven.Yin\Workspace\20230303_TransferData\工作目录\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8A72F85C-8625-4CC7-8691-2D72E935FB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B31061-E89C-490F-A5D5-68D108B434C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,41 +20,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
-  <si>
-    <t>进货量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>数据采集人</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>张三</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李四</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>王五</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>数据文件名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ceshi.xls</t>
-  </si>
-  <si>
-    <t>ceshi2.xls</t>
-  </si>
-  <si>
-    <t>huodong.xls</t>
-  </si>
-  <si>
     <t>Sheet页名称(默认为第一页）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -63,18 +38,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>销售量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进货量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>损耗量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>数据年度</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -87,10 +50,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>尹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>采集起始行/列</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -99,15 +58,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>损耗量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>横表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>横表xlsx测试.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -143,27 +94,67 @@
     </r>
   </si>
   <si>
-    <t>十</t>
+    <t>用户1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户2</t>
+  </si>
+  <si>
+    <t>用户3</t>
+  </si>
+  <si>
+    <t>用户4</t>
+  </si>
+  <si>
+    <t>用户5</t>
+  </si>
+  <si>
+    <t>存款余额表（2022年）.xls</t>
+  </si>
+  <si>
+    <t>贷款余额表（2022年）.xls</t>
+  </si>
+  <si>
+    <t>绩效评级表（2022年）.xls</t>
+  </si>
+  <si>
+    <t>综合评价级别（2022年）.xls</t>
+  </si>
+  <si>
+    <t>存款余额</t>
+  </si>
+  <si>
+    <t>贷款余额</t>
+  </si>
+  <si>
+    <t>绩效评级</t>
+  </si>
+  <si>
+    <t>综合评价级别</t>
+  </si>
+  <si>
+    <t>特殊情况.xls</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊情况</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>横表xlsx2测试.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一</t>
+    <t>评分项1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
+    <t>评分项2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -174,12 +165,15 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
-      <charset val="129"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -216,7 +210,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -239,11 +233,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -255,6 +264,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -570,17 +588,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.77734375" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.109375" style="1" customWidth="1"/>
@@ -590,140 +608,140 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>26</v>
+      <c r="D2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2022</v>
       </c>
       <c r="F2" s="2">
         <v>2</v>
       </c>
       <c r="G2" s="2">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H2" s="2">
         <v>1</v>
       </c>
       <c r="I2" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2">
-        <v>88</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2020</v>
+        <v>19</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2022</v>
       </c>
       <c r="F3" s="4">
         <v>2</v>
       </c>
       <c r="G3" s="2">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
       </c>
       <c r="I3" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
+      <c r="D4" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E4" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F4" s="2">
         <v>2</v>
       </c>
       <c r="G4" s="2">
-        <v>6</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
       </c>
       <c r="I4" s="2">
+        <v>3</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="E5" s="2">
         <v>2022</v>
@@ -732,30 +750,30 @@
         <v>2</v>
       </c>
       <c r="G5" s="2">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>29</v>
+      <c r="I5" s="4">
+        <v>4</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="2">
-        <v>99</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>0</v>
+      <c r="D6" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="E6" s="2">
         <v>2022</v>
@@ -764,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="G6" s="2">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="H6" s="2">
         <v>1</v>
@@ -772,35 +790,75 @@
       <c r="I6" s="2">
         <v>3</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2022</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>37</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>4</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2022</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>37</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>5</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -812,7 +870,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -824,7 +882,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -836,7 +894,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -848,7 +906,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -860,7 +918,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -872,7 +930,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -884,7 +942,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -896,7 +954,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
